--- a/V SEMESTRE - CONTADURÍA PÚBLICA/PROCESOS CONTABLES III/TODO TEORÍA PROCESOS III.xlsx
+++ b/V SEMESTRE - CONTADURÍA PÚBLICA/PROCESOS CONTABLES III/TODO TEORÍA PROCESOS III.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sala1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7E7725-4448-4B1A-BC24-715CE66F78AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07B7D6-61D5-4C38-8335-C339C9099AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Generalidades" sheetId="1" r:id="rId1"/>
+    <sheet name="22-04-2024" sheetId="2" r:id="rId2"/>
+    <sheet name="24-04-24" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>El periodo determinado para realizar los estados financieros depende de la empresa teniendo en cuenta la Ley 1314, los periodos se diferencian entre contabilidad y fiscal (tributaria)</t>
   </si>
@@ -173,12 +175,160 @@
   <si>
     <t>Una empresa está bien cuandos sus activos corrientes son mayores o iguales a sus pasivos corrientes</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cuando hacemos una VENTA es IVA generado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando hacemos una COMPRA es IVA descontable </t>
+  </si>
+  <si>
+    <t>Anticipo es diferente de pago anticipado porque un anticipo es un activo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los anticipos se van convirtiendo en Ingresos a medida que se van desarrollando </t>
+  </si>
+  <si>
+    <t>Articulo 376 del Código de Comercio</t>
+  </si>
+  <si>
+    <t>CAPITAL AUTORIZADO, SUSCRITO Y PAGADO EN LA SOCIEDAD ANÓNIMA</t>
+  </si>
+  <si>
+    <t>Al constituirse la sociedad deberá suscribirse no menos del cincuenta por ciento del capital autorizado y pagarse no menos de la tercera parte del valor de cada acción de capital que se suscriba.</t>
+  </si>
+  <si>
+    <t>Al darse a conocer el capital autorizado se deberá indicar, a la vez, la cifra del capital suscrito y la del pagado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El plazo para pagar el capital suscrito por pagar es de un año </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando quiero cambiar mis porcentajes de capitales se hace una REFORMA ESTATUTARIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuación patrimonial </t>
+  </si>
+  <si>
+    <t>El capital autorizado es el valor máximo de capital que puede tener una sociedad.el valor del capital suscrito es la parte del autorizado que los socios se comprometen a pagar en un plazo máximo según la sociedad. El capital pagado es el que ha sido aportado efectivamente a la sociedad por los accionistas.</t>
+  </si>
+  <si>
+    <t>Capital autorizado</t>
+  </si>
+  <si>
+    <t>Capital por suscribir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital suscrito </t>
+  </si>
+  <si>
+    <t>Capital suscrito por cobrar</t>
+  </si>
+  <si>
+    <t>Capital pagado</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>Creamos una empresa y el capital autorizado es de 600.000.000</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Debe</t>
+  </si>
+  <si>
+    <t>Haber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJERCICIO </t>
+  </si>
+  <si>
+    <t>La compañía patrimonio SAS se ha constituido en Junio 30 de 2023, con un capital autorizado de 200.000 acciones a valor nominal de 1.000 pesos cada una. Los accionistas han suscrito 100.000 acciones. Han cancelado el 30% con cheque y un 45% en efectivo. Se pide: Hacer los asientos contables y preparar la ecuación patrimonial.</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>ECUACIÓN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>Capital suscrito</t>
+  </si>
+  <si>
+    <t>Capital suscrito y pagado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital suscrito por cobrar </t>
+  </si>
+  <si>
+    <t>MATRICES Y CONTROLADAS</t>
+  </si>
+  <si>
+    <t>Las matrices son las que tienen la obligación de consolidar los estados financieros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una matriz es aquella que tiene una inversión en otra empresa de más de 50% de las acciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La filial es aquella que es controlada por una matriz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si una empresa no supera en otra la inversión del 50% no es matriz, simplemente tiene una inversión en ella. </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Matriz</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Filial</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Subsidiaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando la matriz tenga un porcentaje del 51% de la subsidiaria es considerada matriz,  sino solo una asociada o inversionista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo las filiales y las subsidiarias consolidan los estados financieros con la matriz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando la relación no es directa es subsidiaria y no filial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razones para la existencia de controladas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acciones: </t>
+  </si>
+  <si>
+    <t>Interés mayoritario o parte controlada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interés minoritario </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,16 +344,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -235,26 +398,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -268,6 +540,417 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>667280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE31CA8-89B2-E677-C081-D712FFA1F3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8210549" y="3070879"/>
+          <a:ext cx="3791481" cy="2110721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>73312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E53B0D-D37C-2085-3DC4-EDC926E92C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6591299" y="454312"/>
+          <a:ext cx="4906081" cy="2498438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BF047F-4914-DA60-E9F5-DCFC339E140E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="33286" r="14058"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6610349" y="3038474"/>
+          <a:ext cx="2790825" cy="3319185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CB7707-4EDE-ADE5-0A3F-32313928AAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="247650" y="1628775"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F35CD2D-C0BB-43C5-9020-CA95A156B7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="247650" y="1828800"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0645243-1C08-45D3-A0EF-4815FA53C746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="266700" y="2019300"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357307</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA609A49-93AD-ED9B-9840-7B039AC689C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9501307" y="3047999"/>
+          <a:ext cx="3986092" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,163 +1218,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="P3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="K7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="K8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="K9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="K11" t="s">
         <v>16</v>
       </c>
@@ -739,27 +1422,27 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="K19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="K20" t="s">
         <v>22</v>
       </c>
@@ -770,38 +1453,38 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="K22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -817,4 +1500,627 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55728F82-EE97-4924-A860-647FD0E5BDAA}">
+  <dimension ref="A2:L46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>310505</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>310510</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>310515</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>310505</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>310510</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2">
+        <f>F20</f>
+        <v>600000000</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>310510</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>310515</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2">
+        <f>F23</f>
+        <v>400000000</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>310515</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2">
+        <f>F26</f>
+        <v>300000000</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>310515</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="2">
+        <f>E29</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="G34" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="4">
+        <f>D38</f>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="4">
+        <f>C39-D41</f>
+        <v>100000000</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="4">
+        <f>H35-H36</f>
+        <v>100000000</v>
+      </c>
+      <c r="J37" s="4">
+        <f>C45</f>
+        <v>30000000</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="4">
+        <f>D44</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>310505</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2">
+        <f>200000*1000</f>
+        <v>200000000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="2">
+        <f>L40</f>
+        <v>25000000</v>
+      </c>
+      <c r="J38" s="4">
+        <f>C46</f>
+        <v>45000000</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>310510</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="2">
+        <f>D38</f>
+        <v>200000000</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="10">
+        <f>H37-H38</f>
+        <v>75000000</v>
+      </c>
+      <c r="J39" s="8">
+        <f>J37+J38</f>
+        <v>75000000</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="8">
+        <f>L37</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="7"/>
+      <c r="L40" s="10">
+        <f>L39-J39</f>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>310510</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2">
+        <f>100000*1000</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>310515</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2">
+        <f>D41</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>310515</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <f>D41</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2">
+        <f>D44*30%</f>
+        <v>30000000</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="4">
+        <f>D44*45%</f>
+        <v>45000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A14:H16"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:E36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="J36:L36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E0687F-927B-42F1-ABBA-1791AFD991CF}">
+  <dimension ref="A2:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A12:H13"/>
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>